--- a/Entity간 교환 메시지 형식 및 의미.xlsx
+++ b/Entity간 교환 메시지 형식 및 의미.xlsx
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1159,12 +1159,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+    <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -2157,7 +2157,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/Entity간 교환 메시지 형식 및 의미.xlsx
+++ b/Entity간 교환 메시지 형식 및 의미.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="18495" windowHeight="11025"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18495" windowHeight="11025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="164">
   <si>
     <t>메시지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;시간&gt; &lt;AP-2&gt; &lt;USER&gt; &lt;HELO&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[LS1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,10 +303,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;시간&gt; &lt;AP-1&gt; &lt;USER&gt; &lt;BYEE&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기존의  AP에게 연결 해제 알림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -598,6 +590,94 @@
   </si>
   <si>
     <t>최초에 수신하는 메시지로, ES가 서비스 가능 상태임을 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[US4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curr AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;USER&gt; &lt;common.USER_EXIT&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아예 종료하고 나가는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AR14]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user &gt; curr AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user가 아예 종료함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;시간&gt; &lt;AP-2&gt; &lt;USER&gt; &lt;USER HELO&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;시간&gt; &lt;AP-1&gt; &lt;USER&gt; &lt;USER BYEE&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[LR3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curr AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user가 아예 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;시간&gt; &lt;AP-X&gt; &lt;USER&gt; &lt;USER EXIT&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[LS3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨트롤러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;LOGGER&gt; &lt;EXIT&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[LR3] 받으면 컨트롤러에게 알려줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CR4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user가 종료 =&gt; 관련 변수를 초기화 하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -784,6 +864,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1066,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1165,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1160,11 +1243,21 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="A9" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -1197,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>15</v>
@@ -1208,19 +1301,19 @@
     </row>
     <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1248,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1357,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1292,53 +1385,53 @@
     </row>
     <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1380,13 +1473,13 @@
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>15</v>
@@ -1398,13 +1491,13 @@
     </row>
     <row r="14" spans="1:5" s="29" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>15</v>
@@ -1416,7 +1509,7 @@
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>4</v>
@@ -1426,15 +1519,24 @@
         <v>15</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="14" t="str">
+        <f>LOGGER!C8</f>
+        <v>&lt;LOGGER&gt; &lt;EXIT&gt;</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1447,7 +1549,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1462,7 +1564,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1490,44 +1592,54 @@
     </row>
     <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="C7" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="A8" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -1591,38 +1703,48 @@
         <v>3</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1635,7 +1757,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1650,7 +1772,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1680,22 +1802,22 @@
     </row>
     <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1704,7 +1826,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1713,37 +1835,37 @@
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1752,7 +1874,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1761,37 +1883,37 @@
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" s="14" t="str">
         <f>B9</f>
@@ -1809,7 +1931,7 @@
     </row>
     <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B16" s="14" t="str">
         <f>B10</f>
@@ -1827,7 +1949,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1836,43 +1958,43 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>136</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>138</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1921,10 +2043,10 @@
     </row>
     <row r="26" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" s="20" t="e">
         <f ca="1">_xlfn.CONCAT(CONTROLLER!A6, " = ", CONTROLLER!C6)</f>
@@ -1932,15 +2054,15 @@
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="21" t="e">
         <f ca="1">_xlfn.CONCAT(CONTROLLER!A7, " = ", CONTROLLER!C7)</f>
@@ -1954,10 +2076,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="C28" s="21" t="e">
         <f ca="1">_xlfn.CONCAT(CONTROLLER!A8, " = ", CONTROLLER!C8)</f>
@@ -1971,10 +2093,10 @@
     </row>
     <row r="29" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" s="14" t="e">
         <f ca="1">_xlfn.CONCAT(USER!A6, " = ", USER!C6)</f>
@@ -1988,10 +2110,10 @@
     </row>
     <row r="30" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C30" s="14" t="e">
         <f ca="1">_xlfn.CONCAT(USER!A7, " = ", USER!C7)</f>
@@ -2005,10 +2127,10 @@
     </row>
     <row r="31" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="14" t="e">
         <f ca="1">_xlfn.CONCAT(USER!A8, " = ", USER!C8)</f>
@@ -2022,10 +2144,10 @@
     </row>
     <row r="32" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" s="14" t="e">
         <f ca="1">_xlfn.CONCAT('EDGE-SERVER'!A6, " : ", 'EDGE-SERVER'!C6)</f>
@@ -2033,15 +2155,15 @@
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="29" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C33" s="28" t="e">
         <f ca="1">_xlfn.CONCAT('EDGE-SERVER'!A7, " : ", 'EDGE-SERVER'!C7)</f>
@@ -2049,71 +2171,71 @@
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C38" s="14" t="str">
         <f>'EDGE-SERVER'!C8</f>
@@ -2121,15 +2243,24 @@
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="20" t="str">
+        <f>USER!C9</f>
+        <v>&lt;USER&gt; &lt;common.USER_EXIT&gt;</v>
+      </c>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
@@ -2172,7 +2303,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2218,7 +2349,7 @@
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>33</v>
@@ -2235,19 +2366,19 @@
     </row>
     <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="E8" s="14" t="s">
         <v>130</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/Entity간 교환 메시지 형식 및 의미.xlsx
+++ b/Entity간 교환 메시지 형식 및 의미.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="18495" windowHeight="11025" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18495" windowHeight="11025" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="1" r:id="rId1"/>
@@ -263,10 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[AR1]에 대한 응답</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;CONTROLLER&gt; &lt;INFQ&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -372,10 +368,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;AP-X&gt; &lt;INFR&gt; &lt;각종 정보를 space로 구분&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[CR3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -678,6 +670,14 @@
   </si>
   <si>
     <t>user가 종료 =&gt; 관련 변수를 초기화 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AR1]에 대한 응답, Profile정보는 test 목적으로 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;AP-X&gt; &lt;INFR&gt; &lt;Profile&gt; &lt;정보를 '-'로 구분&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1165,7 +1165,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1244,19 +1244,19 @@
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>15</v>
@@ -1301,19 +1301,19 @@
     </row>
     <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>139</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1341,15 +1341,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.625" style="3"/>
     <col min="2" max="2" width="10.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="37.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.625" style="3"/>
     <col min="5" max="5" width="50.625" style="3" customWidth="1"/>
     <col min="6" max="16384" width="8.625" style="3"/>
@@ -1357,7 +1357,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1385,53 +1385,53 @@
     </row>
     <row r="6" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
         <v>51</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>46</v>
@@ -1494,7 +1494,7 @@
         <v>52</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>47</v>
@@ -1509,25 +1509,28 @@
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="14" t="str">
+        <f>CONCATENATE(AP!A6, " = ", AP!C6)</f>
+        <v>[AS1] = &lt;AP-X&gt; &lt;INFR&gt; &lt;Profile&gt; &lt;정보를 '-'로 구분&gt;</v>
+      </c>
       <c r="D15" s="27" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C16" s="14" t="str">
         <f>LOGGER!C8</f>
@@ -1535,7 +1538,7 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1567,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1598,7 +1601,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>15</v>
@@ -1615,7 +1618,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>15</v>
@@ -1626,19 +1629,19 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1703,47 +1706,47 @@
         <v>3</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1756,15 +1759,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.625" style="3"/>
     <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="44.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="42.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.625" style="3"/>
     <col min="5" max="5" width="43.25" style="3" customWidth="1"/>
     <col min="6" max="16384" width="8.625" style="3"/>
@@ -1772,7 +1775,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1808,16 +1811,16 @@
         <v>48</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>56</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1826,7 +1829,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1835,37 +1838,37 @@
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1874,7 +1877,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1883,37 +1886,37 @@
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B15" s="14" t="str">
         <f>B9</f>
@@ -1931,7 +1934,7 @@
     </row>
     <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B16" s="14" t="str">
         <f>B10</f>
@@ -1949,7 +1952,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1958,43 +1961,43 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>136</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2046,11 +2049,11 @@
         <v>53</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="20" t="e">
-        <f ca="1">_xlfn.CONCAT(CONTROLLER!A6, " = ", CONTROLLER!C6)</f>
-        <v>#NAME?</v>
+        <v>70</v>
+      </c>
+      <c r="C26" s="20" t="str">
+        <f>CONCATENATE(CONTROLLER!A6, " = ", CONTROLLER!C6)</f>
+        <v>[CS1] = &lt;CONTROLLER&gt; &lt;INFQ&gt;</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="14" t="s">
@@ -2059,14 +2062,14 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="21" t="e">
-        <f ca="1">_xlfn.CONCAT(CONTROLLER!A7, " = ", CONTROLLER!C7)</f>
-        <v>#NAME?</v>
+        <v>71</v>
+      </c>
+      <c r="C27" s="21" t="str">
+        <f>CONCATENATE(CONTROLLER!A7, " = ", CONTROLLER!C7)</f>
+        <v>[CS3.1] = &lt;CONTROLLER&gt; &lt;MIGR-SRC&gt; &lt;기법 번호&gt;</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="str">
@@ -2076,14 +2079,14 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="21" t="e">
-        <f ca="1">_xlfn.CONCAT(CONTROLLER!A8, " = ", CONTROLLER!C8)</f>
-        <v>#NAME?</v>
+        <v>71</v>
+      </c>
+      <c r="C28" s="21" t="str">
+        <f>CONCATENATE(CONTROLLER!A8, " = ", CONTROLLER!C8)</f>
+        <v>[CS3.2] = &lt;CONTROLLER&gt; &lt;MIGR-DST&gt; &lt;기법 번호&gt;</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="15" t="str">
@@ -2093,10 +2096,10 @@
     </row>
     <row r="29" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C29" s="14" t="e">
         <f ca="1">_xlfn.CONCAT(USER!A6, " = ", USER!C6)</f>
@@ -2110,10 +2113,10 @@
     </row>
     <row r="30" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="14" t="e">
         <f ca="1">_xlfn.CONCAT(USER!A7, " = ", USER!C7)</f>
@@ -2127,10 +2130,10 @@
     </row>
     <row r="31" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C31" s="14" t="e">
         <f ca="1">_xlfn.CONCAT(USER!A8, " = ", USER!C8)</f>
@@ -2144,10 +2147,10 @@
     </row>
     <row r="32" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="14" t="e">
         <f ca="1">_xlfn.CONCAT('EDGE-SERVER'!A6, " : ", 'EDGE-SERVER'!C6)</f>
@@ -2155,15 +2158,15 @@
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="29" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" s="28" t="e">
         <f ca="1">_xlfn.CONCAT('EDGE-SERVER'!A7, " : ", 'EDGE-SERVER'!C7)</f>
@@ -2171,71 +2174,71 @@
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C38" s="14" t="str">
         <f>'EDGE-SERVER'!C8</f>
@@ -2243,15 +2246,15 @@
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C39" s="20" t="str">
         <f>USER!C9</f>
@@ -2259,7 +2262,7 @@
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2303,7 +2306,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2349,7 +2352,7 @@
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>33</v>
@@ -2366,19 +2369,19 @@
     </row>
     <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="E8" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/Entity간 교환 메시지 형식 및 의미.xlsx
+++ b/Entity간 교환 메시지 형식 및 의미.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="18495" windowHeight="11025" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18495" windowHeight="11025" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="USER" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="166">
   <si>
     <t>메시지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,14 +275,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;CONTROLLER&gt; &lt;MIGR-SRC&gt; &lt;기법 번호&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;CONTROLLER&gt; &lt;MIGR-DST&gt; &lt;기법 번호&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>migr 출발지로써 N번 기법을 준비해서 실행하라고 알림</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,304 +372,360 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[AR9]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 AP를 건너서 연결된 user로 부터의 서비스 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AR10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AS2]</t>
+  </si>
+  <si>
+    <t>[AS3]</t>
+  </si>
+  <si>
+    <t>[AS5]</t>
+  </si>
+  <si>
+    <t>[AS6]</t>
+  </si>
+  <si>
+    <t>[AS7]</t>
+  </si>
+  <si>
+    <t>[AS8]</t>
+  </si>
+  <si>
+    <t>[AS10]</t>
+  </si>
+  <si>
+    <t>[AS4.2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AS4.1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 요청을 그대로 ES에 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES가 없어서, 다른 AP에게 요청을 전달해줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AR7] 을 user에게 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;AP-X&gt; &lt;SVC_RES&gt; &lt;카운터&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;LOGGER&gt; &lt;HELO&gt; &lt;AP-2&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;LOGGER&gt; &lt;BYEE&gt; &lt;AP-1&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AR8] 을 다른 AP로 relay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AS9.1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AS9.2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AR11]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;AP-X&gt; &lt;STOP-EdgeServer&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AS11]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AR12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;AP-X&gt; &lt;START-EdgeServer&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AS12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;AP-X&gt; &lt;common.SVC_REQ&gt; &lt;카운터&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;AP-X&gt; &lt;common.SVC_RES&gt; &lt;카운터&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;AP-X&gt; &lt;common.SVC_REQ&gt; &lt;카운터&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;AP-X&gt; &lt;common.SVC_REQ&gt; &lt;카운터&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;AP-X&gt; &lt;common.SVC_RES&gt; &lt;카운터&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;AP-X&gt; &lt;common.SVC_RES&gt; &lt;카운터&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ES2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[ES3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결된 AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;EdgeServerX&gt; &lt;common.ES_READY&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES가 서비스 가능한 상태가 되었음을 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AR13]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdgeServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EdgeServer가 서비스 가능한 상태가 되었음을 수신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AS13]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;AP-X&gt; &lt;common.ES_READY&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초에만 전달해주기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[UR2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;AP-X&gt; &lt;common.ES_READY&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초에 수신하는 메시지로, ES가 서비스 가능 상태임을 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[US4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curr AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;USER&gt; &lt;common.USER_EXIT&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아예 종료하고 나가는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[AR14]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user &gt; curr AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user가 아예 종료함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;시간&gt; &lt;AP-2&gt; &lt;USER&gt; &lt;USER HELO&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;시간&gt; &lt;AP-1&gt; &lt;USER&gt; &lt;USER BYEE&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[LR3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>curr AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user가 아예 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;시간&gt; &lt;AP-X&gt; &lt;USER&gt; &lt;USER EXIT&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[LS3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨트롤러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;LOGGER&gt; &lt;EXIT&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[LR3] 받으면 컨트롤러에게 알려줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CR4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user가 종료 =&gt; 관련 변수를 초기화 하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;AP-X&gt; &lt;INFR&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Profile&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;정보를 '-'로 구분&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[AR1]에 대한 응답, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Profile정보는 test 목적으로 필요</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>old AP 로 부터, migr 판단에 필요한 데이터 수신하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[AR9]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른 AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른 AP를 건너서 연결된 user로 부터의 서비스 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AR10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AS2]</t>
-  </si>
-  <si>
-    <t>[AS3]</t>
-  </si>
-  <si>
-    <t>[AS5]</t>
-  </si>
-  <si>
-    <t>[AS6]</t>
-  </si>
-  <si>
-    <t>[AS7]</t>
-  </si>
-  <si>
-    <t>[AS8]</t>
-  </si>
-  <si>
-    <t>[AS10]</t>
-  </si>
-  <si>
-    <t>[AS4.2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AS4.1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 요청을 그대로 ES에 전달</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES가 없어서, 다른 AP에게 요청을 전달해줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>other AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AR7] 을 user에게 전달</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;AP-X&gt; &lt;SVC_RES&gt; &lt;카운터&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;LOGGER&gt; &lt;HELO&gt; &lt;AP-2&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;LOGGER&gt; &lt;BYEE&gt; &lt;AP-1&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AR8] 을 다른 AP로 relay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AS9.1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AS9.2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AR11]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;AP-X&gt; &lt;STOP-EdgeServer&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AS11]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AR12]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;AP-X&gt; &lt;START-EdgeServer&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AS12]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;AP-X&gt; &lt;common.SVC_REQ&gt; &lt;카운터&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;AP-X&gt; &lt;common.SVC_RES&gt; &lt;카운터&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;AP-X&gt; &lt;common.SVC_REQ&gt; &lt;카운터&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;AP-X&gt; &lt;common.SVC_REQ&gt; &lt;카운터&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;AP-X&gt; &lt;common.SVC_RES&gt; &lt;카운터&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;AP-X&gt; &lt;common.SVC_RES&gt; &lt;카운터&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ES2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[ES3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연결된 AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;EdgeServerX&gt; &lt;common.ES_READY&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남김</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES가 서비스 가능한 상태가 되었음을 알림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AR13]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EdgeServer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EdgeServer가 서비스 가능한 상태가 되었음을 수신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AS13]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;AP-X&gt; &lt;common.ES_READY&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초에만 전달해주기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[UR2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;AP-X&gt; &lt;common.ES_READY&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남김</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최초에 수신하는 메시지로, ES가 서비스 가능 상태임을 알림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[US4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curr AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;USER&gt; &lt;common.USER_EXIT&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남김</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아예 종료하고 나가는 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AR14]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user &gt; curr AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user가 아예 종료함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;시간&gt; &lt;AP-2&gt; &lt;USER&gt; &lt;USER HELO&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;시간&gt; &lt;AP-1&gt; &lt;USER&gt; &lt;USER BYEE&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[LR3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curr AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user가 아예 종료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남김</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;시간&gt; &lt;AP-X&gt; &lt;USER&gt; &lt;USER EXIT&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[LS3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨트롤러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;LOGGER&gt; &lt;EXIT&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남김</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[LR3] 받으면 컨트롤러에게 알려줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[CR4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user가 종료 =&gt; 관련 변수를 초기화 하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[AR1]에 대한 응답, Profile정보는 test 목적으로 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;AP-X&gt; &lt;INFR&gt; &lt;Profile&gt; &lt;정보를 '-'로 구분&gt;</t>
+    <t>AP-2에서 ES 준비가 완료되면, AP-1에게 STOP 보내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP-1에서 migr 필요 데이터 전송 완료 후, AP-2에게 보내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;CONTROLLER&gt; &lt;MIGR-SRC&gt; &lt;기법 이름&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;CONTROLLER&gt; &lt;MIGR-DST&gt; &lt;기법 이름&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,7 +733,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,6 +790,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -790,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -844,9 +901,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1165,7 +1219,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1244,19 +1298,19 @@
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>141</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1290,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>15</v>
@@ -1301,19 +1355,19 @@
     </row>
     <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1342,7 +1396,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1411,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1397,41 +1451,41 @@
         <v>15</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>59</v>
+        <v>164</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1476,7 +1530,7 @@
         <v>51</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>46</v>
@@ -1489,27 +1543,27 @@
         <v>&lt;LOGGER&gt; &lt;HELO&gt; &lt;AP-2&gt; : migr 판단을 위한 데이터 요청하기</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="29" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="27" t="str">
         <f>_xlfn.CONCAT(LOGGER!C7, " : 대응할 필요 없음 (user는 HELO 보내고 다음으로 BYE 보냄. HELO를 기점으로 migr 시작하자)")</f>
         <v>&lt;LOGGER&gt; &lt;BYEE&gt; &lt;AP-1&gt; : 대응할 필요 없음 (user는 HELO 보내고 다음으로 BYE 보냄. HELO를 기점으로 migr 시작하자)</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>84</v>
+      <c r="A15" s="24" t="s">
+        <v>82</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>4</v>
@@ -1518,19 +1572,19 @@
         <f>CONCATENATE(AP!A6, " = ", AP!C6)</f>
         <v>[AS1] = &lt;AP-X&gt; &lt;INFR&gt; &lt;Profile&gt; &lt;정보를 '-'로 구분&gt;</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C16" s="14" t="str">
         <f>LOGGER!C8</f>
@@ -1538,7 +1592,7 @@
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1551,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1621,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1601,7 +1655,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>15</v>
@@ -1618,7 +1672,7 @@
         <v>48</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>15</v>
@@ -1627,21 +1681,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="E8" s="14" t="s">
         <v>156</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1706,47 +1760,47 @@
         <v>3</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>64</v>
+      <c r="A15" s="24" t="s">
+        <v>62</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>153</v>
-      </c>
       <c r="E16" s="14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1759,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1769,13 +1823,13 @@
     <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="42.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.625" style="3"/>
-    <col min="5" max="5" width="43.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="44.25" style="3" customWidth="1"/>
     <col min="6" max="16384" width="8.625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1811,16 +1865,16 @@
         <v>48</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1829,7 +1883,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1838,37 +1892,37 @@
     </row>
     <row r="9" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1877,7 +1931,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1886,37 +1940,37 @@
     </row>
     <row r="13" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15" s="14" t="str">
         <f>B9</f>
@@ -1934,7 +1988,7 @@
     </row>
     <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B16" s="14" t="str">
         <f>B10</f>
@@ -1952,52 +2006,56 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="B19" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="20" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2049,7 +2107,7 @@
         <v>53</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C26" s="20" t="str">
         <f>CONCATENATE(CONTROLLER!A6, " = ", CONTROLLER!C6)</f>
@@ -2062,14 +2120,14 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="21" t="str">
         <f>CONCATENATE(CONTROLLER!A7, " = ", CONTROLLER!C7)</f>
-        <v>[CS3.1] = &lt;CONTROLLER&gt; &lt;MIGR-SRC&gt; &lt;기법 번호&gt;</v>
+        <v>[CS3.1] = &lt;CONTROLLER&gt; &lt;MIGR-SRC&gt; &lt;기법 이름&gt;</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="str">
@@ -2077,29 +2135,29 @@
         <v>migr 출발지로써 N번 기법을 준비해서 실행하라고 알림</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+    <row r="28" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="21" t="str">
+      <c r="C28" s="20" t="str">
         <f>CONCATENATE(CONTROLLER!A8, " = ", CONTROLLER!C8)</f>
-        <v>[CS3.2] = &lt;CONTROLLER&gt; &lt;MIGR-DST&gt; &lt;기법 번호&gt;</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15" t="str">
+        <v>[CS3.2] = &lt;CONTROLLER&gt; &lt;MIGR-DST&gt; &lt;기법 이름&gt;</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14" t="str">
         <f>CONTROLLER!E8</f>
         <v>migr 목적지로써 N번 기법을 준비해서 실행하라고 알림</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C29" s="14" t="e">
         <f ca="1">_xlfn.CONCAT(USER!A6, " = ", USER!C6)</f>
@@ -2113,10 +2171,10 @@
     </row>
     <row r="30" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="14" t="e">
         <f ca="1">_xlfn.CONCAT(USER!A7, " = ", USER!C7)</f>
@@ -2130,10 +2188,10 @@
     </row>
     <row r="31" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="14" t="e">
         <f ca="1">_xlfn.CONCAT(USER!A8, " = ", USER!C8)</f>
@@ -2147,10 +2205,10 @@
     </row>
     <row r="32" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" s="14" t="e">
         <f ca="1">_xlfn.CONCAT('EDGE-SERVER'!A6, " : ", 'EDGE-SERVER'!C6)</f>
@@ -2158,87 +2216,87 @@
       </c>
       <c r="D32" s="14"/>
       <c r="E32" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="29" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="28" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="28" t="e">
+      <c r="B33" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="27" t="e">
         <f ca="1">_xlfn.CONCAT('EDGE-SERVER'!A7, " : ", 'EDGE-SERVER'!C7)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>88</v>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="7" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>118</v>
+        <v>88</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="D35" s="14"/>
-      <c r="E35" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="15" t="s">
+      <c r="B37" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
-        <v>129</v>
+      <c r="A38" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C38" s="14" t="str">
         <f>'EDGE-SERVER'!C8</f>
@@ -2246,15 +2304,15 @@
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25" t="s">
-        <v>145</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24" t="s">
+        <v>142</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C39" s="20" t="str">
         <f>USER!C9</f>
@@ -2262,7 +2320,7 @@
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2290,7 +2348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2306,7 +2364,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2352,7 +2410,7 @@
     </row>
     <row r="7" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>33</v>
@@ -2369,19 +2427,19 @@
     </row>
     <row r="8" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2429,7 +2487,7 @@
       <c r="B13" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="26" t="str">
+      <c r="C13" s="25" t="str">
         <f>_xlfn.CONCAT("[US1] = ", USER!C6)</f>
         <v>[US1] = &lt;USER&gt; &lt;common.SVC_REQ&gt; &lt;카운터&gt;</v>
       </c>

--- a/Entity간 교환 메시지 형식 및 의미.xlsx
+++ b/Entity간 교환 메시지 형식 및 의미.xlsx
@@ -2349,7 +2349,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
